--- a/jupyters/Таблица 1.xlsx
+++ b/jupyters/Таблица 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <r>
       <rPr>
@@ -73,12 +73,66 @@
   <si>
     <t>u, м/с</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Мпа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, кг</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +166,26 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +198,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,20 +213,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -177,7 +296,19 @@
     <tableColumn id="1" name="p_0, Мпа"/>
     <tableColumn id="2" name="m, кг"/>
     <tableColumn id="3" name="μ"/>
-    <tableColumn id="4" name="u, м/с" dataDxfId="0"/>
+    <tableColumn id="4" name="u, м/с" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A9:C12" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A9:C12"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="p_0, Мпа"/>
+    <tableColumn id="2" name="m, кг"/>
+    <tableColumn id="3" name="u, м/с" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -470,15 +601,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -565,11 +696,56 @@
         <v>308.7</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="C10" s="6">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>30.89</v>
+      </c>
+      <c r="C11" s="6">
+        <v>238.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3.089</v>
+      </c>
+      <c r="C12" s="6">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/jupyters/Таблица 1.xlsx
+++ b/jupyters/Таблица 1.xlsx
@@ -16,60 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p_0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Мпа</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, кг</t>
-    </r>
-  </si>
-  <si>
-    <t>μ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>u, м/с</t>
   </si>
@@ -132,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,15 +90,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -185,18 +123,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -232,17 +164,17 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -256,28 +188,17 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -290,20 +211,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="p_0, Мпа"/>
-    <tableColumn id="2" name="m, кг"/>
-    <tableColumn id="3" name="μ"/>
-    <tableColumn id="4" name="u, м/с" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A9:C12" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A9:C12" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A9:C12"/>
   <tableColumns count="3">
     <tableColumn id="1" name="p_0, Мпа"/>
@@ -604,7 +512,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,98 +521,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D2" s="3">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>32.5</v>
-      </c>
-      <c r="C3">
-        <v>1.32</v>
-      </c>
-      <c r="D3" s="3">
-        <v>217.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>42.5</v>
-      </c>
-      <c r="C4">
-        <v>1.72</v>
-      </c>
-      <c r="D4" s="3">
-        <v>193.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>0.87</v>
-      </c>
-      <c r="D5" s="3">
-        <v>258.39999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7.8</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D6" s="3">
-        <v>308.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,8 +557,8 @@
       <c r="B10">
         <v>308.89999999999998</v>
       </c>
-      <c r="C10" s="6">
-        <v>87.7</v>
+      <c r="C10" s="4">
+        <v>86.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,8 +568,8 @@
       <c r="B11">
         <v>30.89</v>
       </c>
-      <c r="C11" s="6">
-        <v>238.3</v>
+      <c r="C11" s="4">
+        <v>234.3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,16 +579,15 @@
       <c r="B12">
         <v>3.089</v>
       </c>
-      <c r="C12" s="6">
-        <v>481</v>
+      <c r="C12" s="4">
+        <v>475.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
